--- a/my-python-code/DataProcess/Rebate/rebateTarget.xlsx
+++ b/my-python-code/DataProcess/Rebate/rebateTarget.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -408,8 +408,8 @@
   </sheetPr>
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:W3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W3" sqref="L2:W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -564,58 +564,43 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>3</v>
       </c>
-      <c r="I2" t="n">
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>4</v>
       </c>
-      <c r="J2" t="n">
-        <v>6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7</v>
-      </c>
-      <c r="M2" t="n">
-        <v>8</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>10</v>
-      </c>
-      <c r="P2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>6</v>
-      </c>
-      <c r="S2" t="n">
-        <v>17</v>
-      </c>
-      <c r="T2" t="n">
-        <v>22</v>
-      </c>
-      <c r="U2" t="n">
-        <v>29</v>
-      </c>
-      <c r="V2" t="n">
-        <v>74</v>
-      </c>
       <c r="W2" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -645,7 +630,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -662,26 +647,8 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -693,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
